--- a/biology/Botanique/Liste_des_espèces_végétales_protégées_en_Auvergne/Liste_des_espèces_végétales_protégées_en_Auvergne.xlsx
+++ b/biology/Botanique/Liste_des_espèces_végétales_protégées_en_Auvergne/Liste_des_espèces_végétales_protégées_en_Auvergne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_en_Auvergne</t>
+          <t>Liste_des_espèces_végétales_protégées_en_Auvergne</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La liste des espèces protégées en Auvergne est une liste officielle définie par le gouvernement français, recensant les espèces végétales qui sont protégées sur le territoire de la région Auvergne, en complément de celles qui sont déjà protégées sur le territoire métropolitain. Elle a été publiée dans un arrêté du 30 mars 1990 (modifiée le 10 mai 1990)[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La liste des espèces protégées en Auvergne est une liste officielle définie par le gouvernement français, recensant les espèces végétales qui sont protégées sur le territoire de la région Auvergne, en complément de celles qui sont déjà protégées sur le territoire métropolitain. Elle a été publiée dans un arrêté du 30 mars 1990 (modifiée le 10 mai 1990).
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_en_Auvergne</t>
+          <t>Liste_des_espèces_végétales_protégées_en_Auvergne</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Ptéridophytes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Asplenium forisiense  Le Grand. : Doradille du Forez
 Asplenium viride Hudson : Doradille verte
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_en_Auvergne</t>
+          <t>Liste_des_espèces_végétales_protégées_en_Auvergne</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,9 +561,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Angiospermes
-Monocotylédones
-Allium flavum L. : Ail jaune.
+          <t>Angiospermes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Monocotylédones</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Allium flavum L. : Ail jaune.
 Carex cespitosa L. : Laîche gazonnante
 Carex pauciflora Lightf. : Laîche pauciflore
 Cephalanthera damasonium (Miller) Druce : Céphalanthère blanche
@@ -578,9 +600,47 @@
 Sagittaria sagittifolia L. : Sagittaire à feuilles en cœur
 Streptopus amplexifolius (L.) DC. : Sceau de Salomon rameux
 Traunsteinera globosa (L.) Reichenb. : Orchis globuleux
-Triglochin maritima L. : Troscart maritime
-Dicotylédones
-Alchemilla charbonneliana Buser : Alchemille de Charbonnel
+Triglochin maritima L. : Troscart maritime</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées_en_Auvergne</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_en_Auvergne</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Phanérogames</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Angiospermes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Dicotylédones</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Alchemilla charbonneliana Buser : Alchemille de Charbonnel
 Androsace carnea ssp rosea (Jord. &amp; Fourr.) Rouy : Androsace rosée
 Androsace elongata L. : Androsace allongée
 Arctostaphylos uva ursi (L.) Springel : Raison d'ours
